--- a/Bibsam_tidskriftslistor/scifree_data_ios.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_ios.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0A09720F20A56AE7753F57ABDD41491B4AE82915" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{076679FF-8134-4977-84C8-3FB46A59CDC3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1087,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1131,137 +1132,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1293,19 +1164,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G87" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:G87"/>
-  <sortState ref="A2:G87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G87" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G87">
     <sortCondition ref="D1:D87"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1573,10 +1444,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:G60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2963,7 +2836,7 @@
         <v>311</v>
       </c>
       <c r="F60" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
         <v>349</v>

--- a/Bibsam_tidskriftslistor/scifree_data_ios.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_ios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0A09720F20A56AE7753F57ABDD41491B4AE82915" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{076679FF-8134-4977-84C8-3FB46A59CDC3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_0A09720F20A56AE7753F57ABDD41491B4AE82915" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68F0551F-B3C6-40E2-9E3A-6D6A9BA18A7B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="336">
   <si>
     <t>Open</t>
   </si>
@@ -49,9 +49,6 @@
     <t>IOS Press</t>
   </si>
   <si>
-    <t>AI Communications</t>
-  </si>
-  <si>
     <t>Algorithmic Finance</t>
   </si>
   <si>
@@ -61,33 +58,21 @@
     <t>Argument &amp; Computation</t>
   </si>
   <si>
-    <t>Asian Journal of Water, Environment and Pollution</t>
-  </si>
-  <si>
     <t>Asymptotic Analysis</t>
   </si>
   <si>
     <t>Bio-Medical Materials and Engineering</t>
   </si>
   <si>
-    <t>Biomedical Spectroscopy and Imaging</t>
-  </si>
-  <si>
     <t>Biorheology</t>
   </si>
   <si>
     <t>Bladder Cancer</t>
   </si>
   <si>
-    <t>Brain Plasticity</t>
-  </si>
-  <si>
     <t>Breast Disease</t>
   </si>
   <si>
-    <t>Bridge Structures - Assessment, Design &amp; Construction</t>
-  </si>
-  <si>
     <t>Cancer Biomarkers</t>
   </si>
   <si>
@@ -115,15 +100,9 @@
     <t>Human Systems Management</t>
   </si>
   <si>
-    <t>ICGA: International Computer Games Association Journal</t>
-  </si>
-  <si>
     <t>In Silico Biology</t>
   </si>
   <si>
-    <t>Informatica</t>
-  </si>
-  <si>
     <t>Information Polity</t>
   </si>
   <si>
@@ -157,18 +136,12 @@
     <t>International Journal of RF Technologies: Research and Applications</t>
   </si>
   <si>
-    <t>The International Journal of Risk and Safety in Medicine</t>
-  </si>
-  <si>
     <t>International Shipbuilding Progress</t>
   </si>
   <si>
     <t>Isokinetics and Exercise Science</t>
   </si>
   <si>
-    <t>JAD Reports</t>
-  </si>
-  <si>
     <t>Journal of Alzheimer's Disease</t>
   </si>
   <si>
@@ -184,9 +157,6 @@
     <t>Journal of Cellular Biotechnology</t>
   </si>
   <si>
-    <t>Journal of Climate Change</t>
-  </si>
-  <si>
     <t>Journal of Computational Methods in Science and Engineering</t>
   </si>
   <si>
@@ -223,9 +193,6 @@
     <t>Journal of Pediatric Rehabilitation Medicine</t>
   </si>
   <si>
-    <t>Journal of Resources, Energy and Development</t>
-  </si>
-  <si>
     <t>Journal of Sports Analytics</t>
   </si>
   <si>
@@ -292,12 +259,6 @@
     <t>Work: A Journal of Prevention, Assessment and Rehabilitation</t>
   </si>
   <si>
-    <t>World Digital Libraries</t>
-  </si>
-  <si>
-    <t>0921-7126</t>
-  </si>
-  <si>
     <t>2158-5571</t>
   </si>
   <si>
@@ -307,27 +268,18 @@
     <t>1946-2166</t>
   </si>
   <si>
-    <t>0972-9860</t>
-  </si>
-  <si>
     <t>0921-7134</t>
   </si>
   <si>
     <t>0959-2989</t>
   </si>
   <si>
-    <t>2212-8794</t>
-  </si>
-  <si>
     <t>0006-355X</t>
   </si>
   <si>
     <t>2352-3727</t>
   </si>
   <si>
-    <t>2213-6304</t>
-  </si>
-  <si>
     <t>0888-6008</t>
   </si>
   <si>
@@ -367,9 +319,6 @@
     <t>1386-6338</t>
   </si>
   <si>
-    <t>0868-4952</t>
-  </si>
-  <si>
     <t>1570-1255</t>
   </si>
   <si>
@@ -412,9 +361,6 @@
     <t>0959-3020</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>1387-2877</t>
   </si>
   <si>
@@ -430,9 +376,6 @@
     <t>2352-3689</t>
   </si>
   <si>
-    <t>2395-7611</t>
-  </si>
-  <si>
     <t>1472-7978</t>
   </si>
   <si>
@@ -469,9 +412,6 @@
     <t>1874-5393</t>
   </si>
   <si>
-    <t>0975-7554</t>
-  </si>
-  <si>
     <t>2215-020X</t>
   </si>
   <si>
@@ -538,12 +478,6 @@
     <t>1051-9815</t>
   </si>
   <si>
-    <t>0974-567X</t>
-  </si>
-  <si>
-    <t>1875-8452</t>
-  </si>
-  <si>
     <t>2157-6203</t>
   </si>
   <si>
@@ -553,27 +487,18 @@
     <t>1946-2174</t>
   </si>
   <si>
-    <t>1875-8568</t>
-  </si>
-  <si>
     <t>1875-8576</t>
   </si>
   <si>
     <t>1878-3619</t>
   </si>
   <si>
-    <t>2212-8808</t>
-  </si>
-  <si>
     <t>1878-5034</t>
   </si>
   <si>
     <t>2352-3735</t>
   </si>
   <si>
-    <t>2213-6312</t>
-  </si>
-  <si>
     <t>1558-1551</t>
   </si>
   <si>
@@ -613,9 +538,6 @@
     <t>1434-3207</t>
   </si>
   <si>
-    <t>1822-8844</t>
-  </si>
-  <si>
     <t>1875-8754</t>
   </si>
   <si>
@@ -676,9 +598,6 @@
     <t>2352-3697</t>
   </si>
   <si>
-    <t>2395-7697</t>
-  </si>
-  <si>
     <t>1875-8983</t>
   </si>
   <si>
@@ -715,9 +634,6 @@
     <t>1875-8894</t>
   </si>
   <si>
-    <t>0975-7562</t>
-  </si>
-  <si>
     <t>1878-6464</t>
   </si>
   <si>
@@ -781,255 +697,6 @@
     <t>1875-9270</t>
   </si>
   <si>
-    <t>0975-7597</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/ai-communications</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/algorithmic-finance</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/applied-ontology</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/argument-and-computation/Preprint/Preprint</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/asian-journal-of-water-environment-and-pollution</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/asymptotic-analysis</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/bio-medical-materials-and-engineering</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/biomedical-spectroscopy-and-imaging</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/biorheology</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/bladder-cancer</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/brain-plasticity</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/breast-disease</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/bridge-structures</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/cancer-biomarkers</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/clinical-hemorheology-and-microcirculation</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/computability</t>
-  </si>
-  <si>
-    <t>https://content.iospress.com/journals/data-science/1/1-2</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/education-for-information</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/environmental-policy-and-law</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/fundamenta-informaticae</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/human-antibodies</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/human-systems-management</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/icga-journal</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/in-silico-biology</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/informatica</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/information-polity</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/information-services-and-use</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/integrated-computer-aided-engineering</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/intelligent-data-analysis</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/intelligent-decision-technologies</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/intelligenza-artificiale</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/international-journal-of-applied-electromagnetics-and-mechanics</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/international-journal-of-developmental-science</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/international-journal-of-hybrid-intelligent-systems</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/international-journal-of-knowledge-based-and-intelligent-engineering-systems</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/international-journal-of-rf-technologies</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/the-international-journal-of-risk-and-safety-in-medicine</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/international-shipbuilding-progress</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/isokinetics-and-exercise-science</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/jad-reports/Preprint/Preprint</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-alzheimers-disease</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-ambient-intelligence-and-smart-environments</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-back-and-musculoskeletal-rehabilitation</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-berry-research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://content.iospress.com/journals/journal-of-cellular-biotechnology </t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-climate-change</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-computational-methods-in-sciences-and-engineering</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-computer-security</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-economic-and-social-measurement</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-high-speed-networks</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-huntingtons-disease</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-integrated-design-and-process-science</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-intelligent-and-fuzzy-systems</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-neonatal-perinatal-medicine</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-neuromuscular-diseases</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-neutron-research</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-parkinsons-disease</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-pediatric-rehabilitation-medicine-an-inderdisciplinary-approach</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-resources-energy-and-development</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-sports-analytics</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-vestibular-research</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-vocational-rehabilitation</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/journal-of-x-ray-science-and-technology</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/kidney-cancer</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/main-group-chemistry</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/mediterranean-journal-of-nutrition-and-metabolism</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/model-assisted-statistics-and-applications</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/multiagent-and-grid-systems</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/neurorehabilitation</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/nutrition-and-healthy-aging/Preprint/Preprint</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/physiotherapy-practice-and-research</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/restorative-neurology-and-neuroscience</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/risk-and-decision-analysis</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/semantic-web</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/statistical-journal-of-the-iaos</t>
-  </si>
-  <si>
-    <t>https://content.iospress.com/journals/stemjournal</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/strength-fracture-and-complexity</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/technology-and-disability</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/technology-and-health-care</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/web-intelligence</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/work</t>
-  </si>
-  <si>
-    <t>http://content.iospress.com/journals/world-digital-libraries-an-international-journal</t>
-  </si>
-  <si>
     <t>Hybrid</t>
   </si>
   <si>
@@ -1039,65 +706,336 @@
     <t>Journal of Future Robot Life</t>
   </si>
   <si>
-    <t>Journal of Medical Psychology</t>
-  </si>
-  <si>
-    <t>Journal on Satisfiability, Boolean Modelling and Computation</t>
-  </si>
-  <si>
-    <t>Tranlational Science of Rare Diseases</t>
-  </si>
-  <si>
     <t>2589-9953</t>
   </si>
   <si>
-    <t>2468-3884</t>
-  </si>
-  <si>
     <t xml:space="preserve">2214-6490 </t>
   </si>
   <si>
     <t>2589-9961</t>
   </si>
   <si>
-    <t xml:space="preserve">2468-3892 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1574-0617 </t>
-  </si>
-  <si>
     <t>2214-6512</t>
   </si>
   <si>
     <t>CC-BY</t>
   </si>
   <si>
-    <t>https://www.iospress.nl/journal/journal-of-future-robot-life/</t>
-  </si>
-  <si>
-    <t>https://content.iospress.com/journals/journal-of-medical-psychology/1/1</t>
-  </si>
-  <si>
-    <t>https://content.iospress.com/journals/journal-on-satisfiability-boolean-modeling-and-computation/12/1</t>
-  </si>
-  <si>
-    <t>https://content.iospress.com/journals/translational-science-of-rare-diseases/Pre-press/Pre-press</t>
+    <t>https://journals.sagepub.com/home/ALG</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/APO</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/arg</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ASY</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/BME</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/BRH</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/BLC</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/BRD</t>
+  </si>
+  <si>
+    <t>Bridge Structures</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/BRS</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/CBM</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/CHM</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/COE</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/dsca</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/EFI</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/EPL</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/FUN</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/HAB</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/HSY</t>
+  </si>
+  <si>
+    <t>ICGA Journal</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ICG</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/isia</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/IPO</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ISU</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ICO</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/IDA</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/IDT</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/INA</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/AEM</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/DEV</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/HYB</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/KES</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/RFT</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/SHP</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ISO</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ALZ</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/AIS</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/BMR</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/BER</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/CEB</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/CEN</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/JCU</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/JEM</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/frl</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/HSN</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/HUN</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/JID</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/IFS</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/NPM</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/jnd</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/JNE</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/pkn</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/prm</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/san</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/VER</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/JVR</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/XST</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/kca</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/MGC</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/MNM</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/MOD</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/MGS</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/NRE</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/nut</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ppr</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/RNN</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/RDA</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/swj</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/SJI</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ste</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/SFC</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/TAD</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/THC</t>
+  </si>
+  <si>
+    <t>International Journal of Risk &amp; Safety in Medicine</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/JRK</t>
+  </si>
+  <si>
+    <t>Translational Science of Rare Diseases</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/TSR</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/WEB</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/WOR</t>
+  </si>
+  <si>
+    <t>2772-5391</t>
+  </si>
+  <si>
+    <t>2772-5383</t>
+  </si>
+  <si>
+    <t>Advances in Communication and Swallowing</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/CSW</t>
+  </si>
+  <si>
+    <t>2949-799X</t>
+  </si>
+  <si>
+    <t>FAIR Connect</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/fco</t>
+  </si>
+  <si>
+    <t>Journal of Alzheimer's Disease Reports</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/alr</t>
+  </si>
+  <si>
+    <t>2772-3577</t>
+  </si>
+  <si>
+    <t>2772-3585</t>
+  </si>
+  <si>
+    <t>Journal of Smart Cities and Society</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/SMC</t>
+  </si>
+  <si>
+    <t>2949-8732</t>
+  </si>
+  <si>
+    <t>Neurosymbolic Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>https://neurosymbolic-ai-journal.com/content/about-neurosymbolic-artificial-intelligence</t>
+  </si>
+  <si>
+    <t>3050-4554</t>
+  </si>
+  <si>
+    <t>3050-4546</t>
+  </si>
+  <si>
+    <t>The European Journal on Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/EAI</t>
+  </si>
+  <si>
+    <t>1010-4283</t>
+  </si>
+  <si>
+    <t>1423-0380</t>
+  </si>
+  <si>
+    <t>Tumor Biology</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/tub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1125,32 +1063,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1164,19 +1083,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G87" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G87">
-    <sortCondition ref="D1:D87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CE3C551-3C0E-4249-A3F7-EA964F32705E}" name="Table2" displayName="Table2" ref="A1:G83" totalsRowShown="0">
+  <autoFilter ref="A1:G83" xr:uid="{2CE3C551-3C0E-4249-A3F7-EA964F32705E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G83">
+    <sortCondition ref="D1:D83"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{9FC3577D-6064-4D2C-863C-885125108089}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{287A126F-0C8B-426B-9474-378719A7CF50}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{A81FC236-47DD-4486-A55A-C1631EE7CABE}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{D5754D4E-4071-43DA-87B9-FC02B1070765}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{0216321E-71E3-40BC-99B3-648A52823F55}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{BEEA77D8-E67E-46D1-9601-097DE43F21DE}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{DBAF1B21-0F8C-4C2C-8EEE-586A85388F33}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1444,44 +1363,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBBF26A-7D81-4404-B602-B17E7DF52901}">
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1490,22 +1409,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,22 +1432,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1536,22 +1455,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1559,22 +1478,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1582,22 +1501,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1605,22 +1524,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1628,22 +1547,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,22 +1570,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1674,22 +1593,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1697,22 +1616,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1720,22 +1639,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1743,22 +1662,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1766,22 +1685,22 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1789,22 +1708,22 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,22 +1731,22 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F16" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,22 +1754,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1858,22 +1777,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1881,22 +1797,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="F19" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1904,22 +1820,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1927,22 +1843,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="F21" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,22 +1866,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1973,22 +1889,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,22 +1912,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,22 +1935,22 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="F25" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2042,22 +1958,22 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,22 +1981,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2088,22 +2004,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="F28" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2111,22 +2027,22 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="F29" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2134,22 +2050,22 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F30" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2157,22 +2073,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F31" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2180,22 +2096,22 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F32" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,22 +2119,22 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F33" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2226,22 +2142,22 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="F34" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G34" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,22 +2165,22 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G35" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,22 +2188,22 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,22 +2211,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G37" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2318,22 +2234,22 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="F38" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G38" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2341,22 +2257,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2364,22 +2277,22 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G40" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,22 +2300,22 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="F41" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,22 +2323,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2433,22 +2346,22 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G43" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,22 +2369,22 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="F44" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G44" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,22 +2392,22 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="F45" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G45" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2502,22 +2415,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="F46" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G46" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,22 +2438,22 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="F47" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,22 +2461,22 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="F48" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G48" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,22 +2484,22 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="F49" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G49" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2594,22 +2507,22 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="F50" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G50" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2617,22 +2530,22 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="F51" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G51" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,22 +2553,22 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="F52" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G52" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2663,22 +2576,22 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="F53" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G53" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,22 +2599,22 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="F54" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G54" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,22 +2622,22 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>346</v>
+        <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>339</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="F55" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G55" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,22 +2645,22 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="F56" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,22 +2668,22 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F57" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G57" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,22 +2691,22 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="F58" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,22 +2714,22 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G59" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2824,22 +2737,22 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="F60" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G60" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,22 +2760,22 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="F61" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G61" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,22 +2783,22 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,22 +2806,22 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="F63" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G63" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2916,22 +2829,22 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G64" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,22 +2852,22 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G65" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2962,19 +2875,22 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>347</v>
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G66" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2982,22 +2898,22 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="F67" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G67" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,22 +2921,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" t="s">
-        <v>155</v>
+        <v>325</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="E68" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F68" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3028,22 +2941,22 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3051,22 +2964,22 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="F70" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G70" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,22 +2987,22 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G71" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3097,22 +3010,22 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="F72" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G72" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3120,22 +3033,22 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3143,22 +3056,22 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="F74" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G74" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3166,22 +3079,22 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="F75" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3189,22 +3102,22 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="F76" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G76" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3212,22 +3125,22 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G77" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3235,22 +3148,22 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E78" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="F78" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G78" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,22 +3171,22 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>329</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F79" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G79" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3281,22 +3194,22 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="E80" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="F80" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3304,22 +3217,22 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
       <c r="E81" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F81" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3327,22 +3240,22 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E82" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="F82" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G82" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3350,121 +3263,28 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="F83" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="G83" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" t="s">
-        <v>348</v>
-      </c>
-      <c r="C84" t="s">
-        <v>344</v>
-      </c>
-      <c r="D84" t="s">
-        <v>341</v>
-      </c>
-      <c r="E84" t="s">
-        <v>353</v>
-      </c>
-      <c r="F84" t="s">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>251</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D85" t="s">
-        <v>88</v>
-      </c>
-      <c r="E85" t="s">
-        <v>333</v>
-      </c>
-      <c r="F85" t="s">
-        <v>336</v>
-      </c>
-      <c r="G85" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" t="s">
-        <v>252</v>
-      </c>
-      <c r="C86" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" t="s">
-        <v>334</v>
-      </c>
-      <c r="F86" t="s">
-        <v>336</v>
-      </c>
-      <c r="G86" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
-        <v>253</v>
-      </c>
-      <c r="C87" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" t="s">
-        <v>335</v>
-      </c>
-      <c r="F87" t="s">
-        <v>336</v>
-      </c>
-      <c r="G87" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>